--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C947F3-59E8-B14A-BA08-3FBC93318F47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5F3644-E8EE-604E-85F3-1F606814D376}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="4000" windowWidth="25240" windowHeight="13140" activeTab="1" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
@@ -116,12 +116,6 @@
     <t>anatomical point' and ('in posterior side of' some pes)</t>
   </si>
   <si>
-    <t>hind foot length with claw</t>
-  </si>
-  <si>
-    <t>hind foot length without claw</t>
-  </si>
-  <si>
     <t>ear length to notch</t>
   </si>
   <si>
@@ -219,6 +213,12 @@
   </si>
   <si>
     <t>hindfoot length</t>
+  </si>
+  <si>
+    <t>hind foot length with nail</t>
+  </si>
+  <si>
+    <t>hind foot length without nail</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>14</v>
@@ -635,7 +635,7 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4"/>
       <c r="I3" s="4" t="s">
@@ -662,7 +662,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -900,7 +900,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -933,7 +933,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -947,7 +947,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -997,7 +997,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
@@ -1011,13 +1011,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1077,7 +1077,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1089,7 +1089,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1101,7 +1101,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1113,7 +1113,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1125,7 +1125,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1135,26 +1135,26 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1174,51 +1174,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>20</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5F3644-E8EE-604E-85F3-1F606814D376}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D61498D-0295-DE4F-9ABC-0BE2B49D5A2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="4000" windowWidth="25240" windowHeight="13140" activeTab="1" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
   <sheets>
     <sheet name="mass" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>hind foot length without nail</t>
+  </si>
+  <si>
+    <t>syn in fovt</t>
+  </si>
+  <si>
+    <t>pes length in oba</t>
+  </si>
+  <si>
+    <t>gutted and skinned body mass</t>
   </si>
 </sst>
 </file>
@@ -897,10 +906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E94EA1-E295-EC47-A54B-89EDC3BEF635}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -960,7 +969,9 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
         <v>13</v>
@@ -972,7 +983,9 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -984,10 +997,12 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1001,7 +1016,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1013,11 +1028,9 @@
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1030,10 +1043,10 @@
         <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1049,7 +1062,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1065,7 +1078,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1074,10 +1087,14 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
+      <c r="A12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1089,7 +1106,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1101,7 +1118,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1113,7 +1130,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1125,7 +1142,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1133,27 +1150,48 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
       <c r="B18" t="s">
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
       <c r="B19" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>61</v>
       </c>
     </row>

--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D61498D-0295-DE4F-9ABC-0BE2B49D5A2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB83114-54F9-A741-A1EA-B82ACBBA90D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -68,24 +68,9 @@
     <t>body length with tail</t>
   </si>
   <si>
-    <t>gutted body mass</t>
-  </si>
-  <si>
-    <t>Mass of an individual organism after being gutted.</t>
-  </si>
-  <si>
-    <t>skinned body mass</t>
-  </si>
-  <si>
-    <t>Mass of an individual organism after being skinned.</t>
-  </si>
-  <si>
     <t>skeletal mass</t>
   </si>
   <si>
-    <t>Mass of the skeletal elements (bones) of an indiviudal organism.</t>
-  </si>
-  <si>
     <t>body length without tail</t>
   </si>
   <si>
@@ -227,7 +212,10 @@
     <t>pes length in oba</t>
   </si>
   <si>
-    <t>gutted and skinned body mass</t>
+    <t>body mass</t>
+  </si>
+  <si>
+    <t>in OBA</t>
   </si>
 </sst>
 </file>
@@ -599,7 +587,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,44 +622,50 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="I3" s="4"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -683,8 +677,13 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -906,10 +905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E94EA1-E295-EC47-A54B-89EDC3BEF635}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,7 +941,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -956,7 +955,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -970,11 +969,11 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -984,11 +983,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -998,11 +999,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1012,11 +1015,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1026,11 +1031,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1039,14 +1046,10 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>62</v>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1055,14 +1058,10 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>63</v>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1071,14 +1070,10 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1087,14 +1082,10 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1106,7 +1097,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1115,84 +1106,36 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
       <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1212,51 +1155,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1273,61 +1216,61 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB83114-54F9-A741-A1EA-B82ACBBA90D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC9F17D-C373-9347-9842-D6E77CCD8F05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
@@ -107,15 +107,6 @@
     <t>ear length to tragus</t>
   </si>
   <si>
-    <t>testicle length</t>
-  </si>
-  <si>
-    <t>left testical length</t>
-  </si>
-  <si>
-    <t>right testical length</t>
-  </si>
-  <si>
     <t>gonad length</t>
   </si>
   <si>
@@ -216,6 +207,15 @@
   </si>
   <si>
     <t>in OBA</t>
+  </si>
+  <si>
+    <t>testis length</t>
+  </si>
+  <si>
+    <t>left testis length</t>
+  </si>
+  <si>
+    <t>right testis length</t>
   </si>
 </sst>
 </file>
@@ -623,20 +623,20 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4"/>
       <c r="I3" s="4"/>
@@ -644,7 +644,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -661,11 +661,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -678,11 +678,11 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" s="4"/>
       <c r="F6" s="4"/>
@@ -908,7 +908,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,7 +941,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -955,7 +955,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -969,7 +969,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -983,13 +983,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -999,13 +999,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>24</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>25</v>
@@ -1049,7 +1049,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1061,7 +1061,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1073,7 +1073,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1085,7 +1085,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1097,7 +1097,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1107,35 +1107,35 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1155,51 +1155,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC9F17D-C373-9347-9842-D6E77CCD8F05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF3043-3340-5049-8958-8825056B48E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -908,7 +908,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A9" sqref="A9:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1046,7 +1046,9 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="5" t="s">
         <v>60</v>
@@ -1058,7 +1060,9 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="5" t="s">
         <v>61</v>
@@ -1070,7 +1074,9 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="5" t="s">
         <v>62</v>
@@ -1082,7 +1088,9 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="5" t="s">
         <v>26</v>
@@ -1094,7 +1102,9 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="5" t="s">
         <v>27</v>

--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF3043-3340-5049-8958-8825056B48E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEF3007-32DB-1D48-9C25-BB5F098BC8A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="2" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
   <sheets>
     <sheet name="mass" sheetId="1" r:id="rId1"/>
     <sheet name="linear" sheetId="2" r:id="rId2"/>
-    <sheet name="structure" sheetId="3" r:id="rId3"/>
+    <sheet name="axis" sheetId="4" r:id="rId3"/>
+    <sheet name="AB" sheetId="5" r:id="rId4"/>
+    <sheet name="structure" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -216,6 +218,90 @@
   </si>
   <si>
     <t>right testis length</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Point A</t>
+  </si>
+  <si>
+    <t>Point B</t>
+  </si>
+  <si>
+    <t>subclass</t>
+  </si>
+  <si>
+    <t>nose tip</t>
+  </si>
+  <si>
+    <t>'anatomical point' and 'distalmost part of' some tail)</t>
+  </si>
+  <si>
+    <t>anus</t>
+  </si>
+  <si>
+    <t>ear length from notch</t>
+  </si>
+  <si>
+    <t>helix</t>
+  </si>
+  <si>
+    <t>ear length from tragus</t>
+  </si>
+  <si>
+    <t>tragus</t>
+  </si>
+  <si>
+    <t>hindfoot length with nail</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('part of' some ('distalmost part of' some 'heel'))</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('part of' some ('distalmost part of' some 'cutaneous appendage'))</t>
+  </si>
+  <si>
+    <t>hindfoot length without nail</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('part of' some ('distalmost part of' some 'phalanx of pes'))</t>
+  </si>
+  <si>
+    <t>proximal-distal</t>
+  </si>
+  <si>
+    <t>pes</t>
+  </si>
+  <si>
+    <t>forearm length</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Pattern name</t>
+  </si>
+  <si>
+    <t>testes length</t>
+  </si>
+  <si>
+    <t>testes length right</t>
+  </si>
+  <si>
+    <t>testes length left</t>
+  </si>
+  <si>
+    <t>ovary length</t>
+  </si>
+  <si>
+    <t>ovary length right</t>
+  </si>
+  <si>
+    <t>ovary length left</t>
   </si>
 </sst>
 </file>
@@ -263,13 +349,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E94EA1-E295-EC47-A54B-89EDC3BEF635}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1154,6 +1241,212 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDDA4BE-5857-7A48-85D6-CE59115D58C4}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
+        <v>line along proximal-distal of pes</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989F560E-1C77-5041-AEDB-4CB4C2E5BEE4}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"line that connects "&amp;B2&amp;" and "&amp;C2</f>
+        <v>line that connects nose tip and 'anatomical point' and 'distalmost part of' some tail)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D7" si="0">"line that connects "&amp;B3&amp;" and "&amp;C3</f>
+        <v>line that connects nose tip and anus</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>line that connects helix and intertragic notch</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>line that connects helix and tragus</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'cutaneous appendage'))</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'phalanx of pes'))</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E079A18B-A517-C643-A6A6-3A7528E1B235}">
   <dimension ref="A1:N6"/>
   <sheetViews>

--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEF3007-32DB-1D48-9C25-BB5F098BC8A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EFD25C-5336-BD48-80EF-D99FE3B5C644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="2" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
   <sheets>
     <sheet name="mass" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -199,9 +199,6 @@
     <t>hind foot length without nail</t>
   </si>
   <si>
-    <t>syn in fovt</t>
-  </si>
-  <si>
     <t>pes length in oba</t>
   </si>
   <si>
@@ -302,6 +299,54 @@
   </si>
   <si>
     <t>ovary length left</t>
+  </si>
+  <si>
+    <t>equivalent to</t>
+  </si>
+  <si>
+    <t>length and ('part of' some testis)</t>
+  </si>
+  <si>
+    <t>lenght and ('part of' some 'right testis')</t>
+  </si>
+  <si>
+    <t>length and ('part of' some 'left testis')</t>
+  </si>
+  <si>
+    <t>length and ('part of' some gonad)</t>
+  </si>
+  <si>
+    <t>width and ('part of' some gonad)</t>
+  </si>
+  <si>
+    <t>cloaca</t>
+  </si>
+  <si>
+    <t>body mass and exclude viscera</t>
+  </si>
+  <si>
+    <t>body mass and exclude skin of body</t>
+  </si>
+  <si>
+    <t>body mass and exclude skin of body and viscera</t>
+  </si>
+  <si>
+    <t>mass and ('part of' some skeleton)</t>
+  </si>
+  <si>
+    <t>length and ('part of' some ovary)</t>
+  </si>
+  <si>
+    <t>length and ('part of' some 'right ovary')</t>
+  </si>
+  <si>
+    <t>length and ('part of' some 'left ovary')</t>
+  </si>
+  <si>
+    <t>right ovary length</t>
+  </si>
+  <si>
+    <t>left ovary length</t>
   </si>
 </sst>
 </file>
@@ -671,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098A47F6-EE73-984E-BEAD-6FF60D1B6325}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,7 +727,7 @@
     <col min="1" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -696,28 +741,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -726,10 +777,13 @@
         <v>49</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -738,15 +792,18 @@
         <v>13</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -755,124 +812,138 @@
         <v>50</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E14" s="4"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E15" s="4"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
@@ -883,107 +954,117 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="D26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="D27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -992,15 +1073,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E94EA1-E295-EC47-A54B-89EDC3BEF635}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1014,23 +1095,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1039,52 +1125,60 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -1092,147 +1186,162 @@
         <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="5" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="5" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3"/>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
+      <c r="C14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1244,24 +1353,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDDA4BE-5857-7A48-85D6-CE59115D58C4}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1269,10 +1378,10 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
       </c>
       <c r="D2" t="str">
         <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
@@ -1281,37 +1390,37 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1326,29 +1435,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989F560E-1C77-5041-AEDB-4CB4C2E5BEE4}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1356,10 +1468,10 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
       </c>
       <c r="D2" t="str">
         <f>"line that connects "&amp;B2&amp;" and "&amp;C2</f>
@@ -1371,22 +1483,22 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D7" si="0">"line that connects "&amp;B3&amp;" and "&amp;C3</f>
+        <f t="shared" ref="D3:D8" si="0">"line that connects "&amp;B3&amp;" and "&amp;C3</f>
         <v>line that connects nose tip and anus</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -1398,13 +1510,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
         <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -1413,13 +1525,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -1428,17 +1540,32 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'phalanx of pes'))</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>line that connects nose tip and cloaca</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1578,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EFD25C-5336-BD48-80EF-D99FE3B5C644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C38CC02-C0FC-B448-AD4C-7C13C674DD24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -283,22 +283,7 @@
     <t>Pattern name</t>
   </si>
   <si>
-    <t>testes length</t>
-  </si>
-  <si>
-    <t>testes length right</t>
-  </si>
-  <si>
-    <t>testes length left</t>
-  </si>
-  <si>
     <t>ovary length</t>
-  </si>
-  <si>
-    <t>ovary length right</t>
-  </si>
-  <si>
-    <t>ovary length left</t>
   </si>
   <si>
     <t>equivalent to</t>
@@ -741,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -764,7 +749,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -778,7 +763,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J3" s="4"/>
       <c r="L3" s="5"/>
@@ -793,7 +778,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -813,7 +798,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1073,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E94EA1-E295-EC47-A54B-89EDC3BEF635}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A15" sqref="A15:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1095,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -1205,7 +1190,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1222,7 +1207,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1239,7 +1224,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1256,7 +1241,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1273,7 +1258,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1321,27 +1306,41 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1351,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDDA4BE-5857-7A48-85D6-CE59115D58C4}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A7:A9"/>
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1386,46 +1385,6 @@
       <c r="D2" t="str">
         <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
         <v>line along proximal-distal of pes</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1520,7 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>

--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C38CC02-C0FC-B448-AD4C-7C13C674DD24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44C8645-C927-E142-9906-635435311E9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -332,6 +332,12 @@
   </si>
   <si>
     <t>left ovary length</t>
+  </si>
+  <si>
+    <t>ulna length</t>
+  </si>
+  <si>
+    <t>in oba; need to add synonym</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1067,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1339,7 +1345,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
         <v>80</v>
       </c>
     </row>

--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44C8645-C927-E142-9906-635435311E9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4236B9D2-E523-9E43-9FF3-3C2FE1DB9BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
@@ -271,9 +271,6 @@
     <t>pes</t>
   </si>
   <si>
-    <t>forearm length</t>
-  </si>
-  <si>
     <t>Axis</t>
   </si>
   <si>
@@ -334,10 +331,13 @@
     <t>left ovary length</t>
   </si>
   <si>
-    <t>ulna length</t>
-  </si>
-  <si>
     <t>in oba; need to add synonym</t>
+  </si>
+  <si>
+    <t>forearm length; ulna length</t>
+  </si>
+  <si>
+    <t>forelimb length</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -755,7 +755,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" s="4"/>
       <c r="L3" s="5"/>
@@ -784,7 +784,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -804,7 +804,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1316,10 +1316,10 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1327,10 +1327,10 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1338,21 +1338,21 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>101</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1375,13 +1375,13 @@
         <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1532,7 +1532,7 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>

--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4236B9D2-E523-9E43-9FF3-3C2FE1DB9BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C318866-1D35-E14C-9C5B-DC2EDB850D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="3" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
   <sheets>
     <sheet name="mass" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -163,12 +163,6 @@
     <t>deprecated</t>
   </si>
   <si>
-    <t>intertragic notch</t>
-  </si>
-  <si>
-    <t>The intertragic notch is a feature of human ear anatomy. It is a small notch that points anteriorly. It is separates the tragus from the antitragus.</t>
-  </si>
-  <si>
     <t>total length</t>
   </si>
   <si>
@@ -338,6 +332,9 @@
   </si>
   <si>
     <t>forelimb length</t>
+  </si>
+  <si>
+    <t>intertragic incisure</t>
   </si>
 </sst>
 </file>
@@ -732,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -752,10 +749,10 @@
         <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -765,11 +762,11 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J3" s="4"/>
       <c r="L3" s="5"/>
@@ -784,7 +781,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -800,11 +797,11 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -816,11 +813,11 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1066,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E94EA1-E295-EC47-A54B-89EDC3BEF635}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,7 +1083,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -1106,7 +1103,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
@@ -1123,10 +1120,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1140,10 +1137,10 @@
         <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1157,7 +1154,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>24</v>
@@ -1174,7 +1171,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>25</v>
@@ -1192,11 +1189,11 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1209,11 +1206,11 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1226,11 +1223,11 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1247,7 +1244,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1264,7 +1261,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1276,13 +1273,13 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -1291,24 +1288,24 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1316,10 +1313,10 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1327,10 +1324,10 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1338,21 +1335,21 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
         <v>100</v>
       </c>
-      <c r="C18" t="s">
-        <v>102</v>
-      </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1372,27 +1369,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" t="str">
         <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
@@ -1408,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989F560E-1C77-5041-AEDB-4CB4C2E5BEE4}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1419,30 +1416,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" t="str">
         <f>"line that connects "&amp;B2&amp;" and "&amp;C2</f>
@@ -1451,13 +1448,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D8" si="0">"line that connects "&amp;B3&amp;" and "&amp;C3</f>
@@ -1466,28 +1463,28 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>line that connects helix and intertragic notch</v>
+        <v>line that connects helix and intertragic incisure</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -1496,13 +1493,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -1511,13 +1508,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -1529,10 +1526,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -1546,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E079A18B-A517-C643-A6A6-3A7528E1B235}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1666,14 +1663,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C318866-1D35-E14C-9C5B-DC2EDB850D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E190CC-A764-8F43-A4B0-983E9F6B2FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="3" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
   <sheets>
     <sheet name="mass" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t>intertragic incisure</t>
+  </si>
+  <si>
+    <t>viscera mass</t>
+  </si>
+  <si>
+    <t>skin mass</t>
   </si>
 </sst>
 </file>
@@ -706,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098A47F6-EE73-984E-BEAD-6FF60D1B6325}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,8 +835,13 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="G7" s="4"/>
@@ -841,8 +852,13 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="G8" s="4"/>
@@ -1405,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989F560E-1C77-5041-AEDB-4CB4C2E5BEE4}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E190CC-A764-8F43-A4B0-983E9F6B2FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8E0479-0C8F-C847-8A92-92CC7E687108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>skin mass</t>
+  </si>
+  <si>
+    <t>weight and ('part of' some viscus)</t>
+  </si>
+  <si>
+    <t>girth</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBA_VT1000425</t>
   </si>
 </sst>
 </file>
@@ -713,7 +722,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,7 +852,9 @@
         <v>102</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -853,7 +864,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -862,7 +873,9 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -870,7 +883,9 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="G9" s="4"/>

--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8E0479-0C8F-C847-8A92-92CC7E687108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219BE285-0A03-A544-8B32-AD068F892D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBA_VT1000425</t>
+  </si>
+  <si>
+    <t>in FOVT</t>
+  </si>
+  <si>
+    <t>chest circumference</t>
   </si>
 </sst>
 </file>
@@ -722,7 +728,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -761,7 +767,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>46</v>
@@ -773,7 +779,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -788,7 +794,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -808,7 +814,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -845,7 +851,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -882,11 +888,16 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="G9" s="4"/>
       <c r="I9" s="4"/>

--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219BE285-0A03-A544-8B32-AD068F892D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4591963-93E7-614B-AE64-549990240B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
+    <workbookView xWindow="7140" yWindow="500" windowWidth="21660" windowHeight="12860" activeTab="1" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
   <sheets>
     <sheet name="mass" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="118">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -356,6 +363,33 @@
   </si>
   <si>
     <t>chest circumference</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>medial-lateral</t>
+  </si>
+  <si>
+    <t>testis</t>
+  </si>
+  <si>
+    <t>left testis</t>
+  </si>
+  <si>
+    <t>right testis</t>
+  </si>
+  <si>
+    <t>gonad</t>
+  </si>
+  <si>
+    <t>ovary</t>
+  </si>
+  <si>
+    <t>right ovary</t>
+  </si>
+  <si>
+    <t>left ovary</t>
   </si>
 </sst>
 </file>
@@ -727,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098A47F6-EE73-984E-BEAD-6FF60D1B6325}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,6 +803,9 @@
       <c r="A2" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>46</v>
       </c>
@@ -781,7 +818,9 @@
       <c r="A3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>47</v>
       </c>
@@ -796,7 +835,9 @@
       <c r="A4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
@@ -816,7 +857,9 @@
       <c r="A5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>48</v>
       </c>
@@ -853,7 +896,9 @@
       <c r="A7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>102</v>
       </c>
@@ -1105,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E94EA1-E295-EC47-A54B-89EDC3BEF635}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,7 +1274,9 @@
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>57</v>
       </c>
@@ -1246,7 +1293,9 @@
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>58</v>
       </c>
@@ -1263,7 +1312,9 @@
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C9" s="5" t="s">
         <v>59</v>
       </c>
@@ -1280,7 +1331,9 @@
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
@@ -1297,7 +1350,9 @@
       <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
@@ -1354,6 +1409,9 @@
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C15" t="s">
         <v>81</v>
       </c>
@@ -1365,6 +1423,9 @@
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C16" t="s">
         <v>96</v>
       </c>
@@ -1375,6 +1436,9 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>97</v>
@@ -1401,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDDA4BE-5857-7A48-85D6-CE59115D58C4}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1436,6 +1500,94 @@
       <c r="D2" t="str">
         <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
         <v>line along proximal-distal of pes</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/terms/bodyTerms.xlsx
+++ b/terms/bodyTerms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4591963-93E7-614B-AE64-549990240B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2ECAB7-1339-664C-A495-6B527C23E1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="500" windowWidth="21660" windowHeight="12860" activeTab="1" xr2:uid="{48D2B3CD-A9E9-BF44-92BF-C9ED0F451C00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="120">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>left ovary</t>
+  </si>
+  <si>
+    <t>ovary width</t>
+  </si>
+  <si>
+    <t>testis width</t>
   </si>
 </sst>
 </file>
@@ -1148,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E94EA1-E295-EC47-A54B-89EDC3BEF635}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1456,6 +1462,16 @@
       </c>
       <c r="D18" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
